--- a/experiments/0_ss_finding/temporal_method/time_required.xlsx
+++ b/experiments/0_ss_finding/temporal_method/time_required.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenpetchey/Desktop/microxanox/diversity_envresp1/experiments/0_ss_finding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenpetchey/Desktop/microxanox/diversity_envresp1/experiments/0_ss_finding/temporal_method/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA8F45-094B-4346-AC98-17EE27904E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC7BF46-26FA-D448-B66C-4A21662BADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="1160" windowWidth="34140" windowHeight="21100" xr2:uid="{06D63768-2800-344A-AD80-A7CE429FF153}"/>
+    <workbookView xWindow="4500" yWindow="1460" windowWidth="30520" windowHeight="25800" xr2:uid="{06D63768-2800-344A-AD80-A7CE429FF153}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>var_expt length</t>
   </si>
@@ -312,10 +312,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$I$2:$I$20</c:f>
+              <c:f>data!$I$2:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>104166.66666666667</c:v>
                 </c:pt>
@@ -372,16 +372,49 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1450000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>337500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>337500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>337500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1256250000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1256250000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1256250000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1256250000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>675000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>675000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>675000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>675000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$J$2:$J$20</c:f>
+              <c:f>data!$J$2:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -438,6 +471,39 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>147918</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>137959</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>172013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>196798</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77718</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80407</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91690</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>102375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,10 +763,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$S$2:$S$20</c:f>
+              <c:f>data!$S$2:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>5.017728766960432</c:v>
                 </c:pt>
@@ -757,16 +823,25 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>9.1613680022349744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.528273777167044</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.528273777167044</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.528273777167044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$T$2:$T$20</c:f>
+              <c:f>data!$T$2:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.7853298350107671</c:v>
                 </c:pt>
@@ -823,6 +898,15 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.1700210260930053</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6812412373755876</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7419390777291985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8195439355418683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,16 +2221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2174,15 +2258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2509,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1196A045-20BB-3147-9839-C23564CDEFB5}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I56" sqref="I52:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3763,7 +3847,7 @@
         <v>300</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ref="F20" si="36">D20*E20</f>
+        <f t="shared" ref="F20:F23" si="36">D20*E20</f>
         <v>300000000</v>
       </c>
       <c r="G20">
@@ -3771,11 +3855,11 @@
         <v>12</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20" si="38">C20*D20*E20</f>
+        <f t="shared" ref="H20:H23" si="38">C20*D20*E20</f>
         <v>17400000000</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20" si="39">H20/G20</f>
+        <f t="shared" ref="I20:I23" si="39">H20/G20</f>
         <v>1450000000</v>
       </c>
       <c r="J20" s="1">
@@ -3786,23 +3870,23 @@
         <v>179875.31865522364</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ref="L20" si="40">K20/60</f>
+        <f t="shared" ref="L20:L23" si="40">K20/60</f>
         <v>2997.9219775870606</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" ref="M20" si="41">L20/60</f>
+        <f t="shared" ref="M20:M23" si="41">L20/60</f>
         <v>49.965366293117675</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ref="N20" si="42">M20/24</f>
+        <f t="shared" ref="N20:N23" si="42">M20/24</f>
         <v>2.0818902622132365</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20" si="43">N20/60</f>
+        <f t="shared" ref="O20:O23" si="43">N20/60</f>
         <v>3.4698171036887278E-2</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20" si="44">J20/K20</f>
+        <f t="shared" ref="P20:P23" si="44">J20/K20</f>
         <v>0.82233627773870466</v>
       </c>
       <c r="S20">
@@ -3814,153 +3898,842 @@
         <v>5.1700210260930053</v>
       </c>
     </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="36"/>
+        <v>300000000</v>
+      </c>
+      <c r="G21">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="38"/>
+        <v>10800000000</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="39"/>
+        <v>337500000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>48000</v>
+      </c>
+      <c r="K21" s="1">
+        <f>I21*regression!B$18+regression!B$17</f>
+        <v>41964.06658363832</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="40"/>
+        <v>699.40110972730531</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="41"/>
+        <v>11.656685162121756</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="42"/>
+        <v>0.48569521508840646</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="43"/>
+        <v>8.0949202514734413E-3</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="44"/>
+        <v>1.1438357601575981</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21:S23" si="45">LOG10(I21)</f>
+        <v>8.528273777167044</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21:T27" si="46">LOG10(J21)</f>
+        <v>4.6812412373755876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="36"/>
+        <v>300000000</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="38"/>
+        <v>10800000000</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="39"/>
+        <v>337500000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>55200</v>
+      </c>
+      <c r="K22" s="1">
+        <f>I22*regression!B$18+regression!B$17</f>
+        <v>41964.06658363832</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="40"/>
+        <v>699.40110972730531</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="41"/>
+        <v>11.656685162121756</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="42"/>
+        <v>0.48569521508840646</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="43"/>
+        <v>8.0949202514734413E-3</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="44"/>
+        <v>1.3154111241812378</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="45"/>
+        <v>8.528273777167044</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="46"/>
+        <v>4.7419390777291985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="36"/>
+        <v>300000000</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="38"/>
+        <v>10800000000</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="39"/>
+        <v>337500000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>66000</v>
+      </c>
+      <c r="K23" s="1">
+        <f>I23*regression!B$18+regression!B$17</f>
+        <v>41964.06658363832</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="40"/>
+        <v>699.40110972730531</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="41"/>
+        <v>11.656685162121756</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="42"/>
+        <v>0.48569521508840646</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="43"/>
+        <v>8.0949202514734413E-3</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" si="44"/>
+        <v>1.5727741702166975</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="45"/>
+        <v>8.528273777167044</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="46"/>
+        <v>4.8195439355418683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>134</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ref="F24:F27" si="47">D24*E24</f>
+        <v>300000000</v>
+      </c>
+      <c r="G24">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24:H27" si="48">C24*D24*E24</f>
+        <v>40200000000</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:I27" si="49">H24/G24</f>
+        <v>1256250000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>135242</v>
+      </c>
+      <c r="K24" s="1">
+        <f>I24*regression!B$18+regression!B$17</f>
+        <v>155857.06688994754</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" ref="L24:L27" si="50">K24/60</f>
+        <v>2597.6177814991256</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" ref="M24:M27" si="51">L24/60</f>
+        <v>43.293629691652093</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" ref="N24:N27" si="52">M24/24</f>
+        <v>1.8039012371521705</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" ref="O24:O27" si="53">N24/60</f>
+        <v>3.0065020619202843E-2</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" ref="P24:P27" si="54">J24/K24</f>
+        <v>0.86773094540201967</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="46"/>
+        <v>5.1311115846206556</v>
+      </c>
+    </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
       <c r="C25">
+        <v>134</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="47"/>
+        <v>300000000</v>
+      </c>
+      <c r="G25">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="48"/>
+        <v>40200000000</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="49"/>
+        <v>1256250000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>137959</v>
+      </c>
+      <c r="K25" s="1">
+        <f>I25*regression!B$18+regression!B$17</f>
+        <v>155857.06688994754</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="50"/>
+        <v>2597.6177814991256</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="51"/>
+        <v>43.293629691652093</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="52"/>
+        <v>1.8039012371521705</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="53"/>
+        <v>3.0065020619202843E-2</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="54"/>
+        <v>0.88516358451307453</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="46"/>
+        <v>5.1397500377100247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>134</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="47"/>
+        <v>300000000</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="48"/>
+        <v>40200000000</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="49"/>
+        <v>1256250000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>172013</v>
+      </c>
+      <c r="K26" s="1">
+        <f>I26*regression!B$18+regression!B$17</f>
+        <v>155857.06688994754</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="50"/>
+        <v>2597.6177814991256</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="51"/>
+        <v>43.293629691652093</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="52"/>
+        <v>1.8039012371521705</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="53"/>
+        <v>3.0065020619202843E-2</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="54"/>
+        <v>1.1036586497644045</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="46"/>
+        <v>5.2355612702500824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>134</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="47"/>
+        <v>300000000</v>
+      </c>
+      <c r="G27">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="48"/>
+        <v>40200000000</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="49"/>
+        <v>1256250000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>196798</v>
+      </c>
+      <c r="K27" s="1">
+        <f>I27*regression!B$18+regression!B$17</f>
+        <v>155857.06688994754</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="50"/>
+        <v>2597.6177814991256</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="51"/>
+        <v>43.293629691652093</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="52"/>
+        <v>1.8039012371521705</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="53"/>
+        <v>3.0065020619202843E-2</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="54"/>
+        <v>1.2626825586225188</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="46"/>
+        <v>5.2940206805110881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:F31" si="55">D28*E28</f>
+        <v>300000000</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28:H31" si="56">C28*D28*E28</f>
+        <v>21600000000</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ref="I28:I31" si="57">H28/G28</f>
+        <v>675000000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>77718</v>
+      </c>
+      <c r="K28" s="1">
+        <f>I28*regression!B$18+regression!B$17</f>
+        <v>83802.311594119252</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" ref="L28:L31" si="58">K28/60</f>
+        <v>1396.7051932353208</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" ref="M28:M31" si="59">L28/60</f>
+        <v>23.278419887255346</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" ref="N28:N31" si="60">M28/24</f>
+        <v>0.96993416196897275</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" ref="O28:O31" si="61">N28/60</f>
+        <v>1.6165569366149546E-2</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" ref="P28:P31" si="62">J28/K28</f>
+        <v>0.92739685244498415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="55"/>
+        <v>300000000</v>
+      </c>
+      <c r="G29">
+        <v>32</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="56"/>
+        <v>21600000000</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="57"/>
+        <v>675000000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>80407</v>
+      </c>
+      <c r="K29" s="1">
+        <f>I29*regression!B$18+regression!B$17</f>
+        <v>83802.311594119252</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="58"/>
+        <v>1396.7051932353208</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="59"/>
+        <v>23.278419887255346</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="60"/>
+        <v>0.96993416196897275</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="61"/>
+        <v>1.6165569366149546E-2</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="62"/>
+        <v>0.95948427281381199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="55"/>
+        <v>300000000</v>
+      </c>
+      <c r="G30">
+        <v>32</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="56"/>
+        <v>21600000000</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="57"/>
+        <v>675000000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>91690</v>
+      </c>
+      <c r="K30" s="1">
+        <f>I30*regression!B$18+regression!B$17</f>
+        <v>83802.311594119252</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="58"/>
+        <v>1396.7051932353208</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="59"/>
+        <v>23.278419887255346</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="60"/>
+        <v>0.96993416196897275</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="61"/>
+        <v>1.6165569366149546E-2</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="62"/>
+        <v>1.0941225636362311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="55"/>
+        <v>300000000</v>
+      </c>
+      <c r="G31">
+        <v>32</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="56"/>
+        <v>21600000000</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="57"/>
+        <v>675000000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>102375</v>
+      </c>
+      <c r="K31" s="1">
+        <f>I31*regression!B$18+regression!B$17</f>
+        <v>83802.311594119252</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="58"/>
+        <v>1396.7051932353208</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="59"/>
+        <v>23.278419887255346</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="60"/>
+        <v>0.96993416196897275</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="61"/>
+        <v>1.6165569366149546E-2</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="62"/>
+        <v>1.2216250131122166</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D33" s="1">
         <v>10000</v>
       </c>
-      <c r="E25">
+      <c r="E33">
         <v>20</v>
       </c>
-      <c r="F25" s="1">
-        <f>D25*E25</f>
+      <c r="F33" s="1">
+        <f>D33*E33</f>
         <v>200000</v>
       </c>
-      <c r="G25">
-        <f xml:space="preserve"> IF(C25&lt;12,C25, 12)</f>
+      <c r="G33">
+        <f xml:space="preserve"> IF(C33&lt;12,C33, 12)</f>
         <v>4</v>
       </c>
-      <c r="H25" s="1">
-        <f>C25*D25*E25</f>
+      <c r="H33" s="1">
+        <f>C33*D33*E33</f>
         <v>800000</v>
       </c>
-      <c r="I25" s="1">
-        <f>H25/G25</f>
+      <c r="I33" s="1">
+        <f>H33/G33</f>
         <v>200000</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C26">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D34" s="1">
         <v>5000</v>
       </c>
-      <c r="E26">
+      <c r="E34">
         <v>20</v>
       </c>
-      <c r="F26" s="1">
-        <f>D26*E26</f>
+      <c r="F34" s="1">
+        <f>D34*E34</f>
         <v>100000</v>
       </c>
-      <c r="G26">
-        <f xml:space="preserve"> IF(C26&lt;12,C26, 12)</f>
+      <c r="G34">
+        <f xml:space="preserve"> IF(C34&lt;12,C34, 12)</f>
         <v>4</v>
       </c>
-      <c r="H26" s="1">
-        <f>C26*D26*E26</f>
+      <c r="H34" s="1">
+        <f>C34*D34*E34</f>
         <v>400000</v>
       </c>
-      <c r="I26" s="1">
-        <f>H26/G26</f>
+      <c r="I34" s="1">
+        <f>H34/G34</f>
         <v>100000</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L34" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C27">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35">
         <v>9</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D35" s="1">
         <v>10000</v>
       </c>
-      <c r="E27">
+      <c r="E35">
         <v>20</v>
       </c>
-      <c r="F27" s="1">
-        <f>D27*E27</f>
+      <c r="F35" s="1">
+        <f>D35*E35</f>
         <v>200000</v>
       </c>
-      <c r="G27">
-        <f t="shared" ref="G27:G28" si="45" xml:space="preserve"> IF(C27&lt;12,C27, 12)</f>
+      <c r="G35">
+        <f t="shared" ref="G35:G36" si="63" xml:space="preserve"> IF(C35&lt;12,C35, 12)</f>
         <v>9</v>
       </c>
-      <c r="H27" s="1">
-        <f>C27*D27*E27</f>
+      <c r="H35" s="1">
+        <f>C35*D35*E35</f>
         <v>1800000</v>
       </c>
-      <c r="I27" s="1">
-        <f>H27/G27</f>
+      <c r="I35" s="1">
+        <f>H35/G35</f>
         <v>200000</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K35" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C28">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C36">
         <v>9</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D36" s="1">
         <v>20000</v>
       </c>
-      <c r="E28">
+      <c r="E36">
         <v>20</v>
       </c>
-      <c r="F28" s="1">
-        <f>D28*E28</f>
+      <c r="F36" s="1">
+        <f>D36*E36</f>
         <v>400000</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="45"/>
+      <c r="G36">
+        <f t="shared" si="63"/>
         <v>9</v>
       </c>
-      <c r="H28" s="1">
-        <f>C28*D28*E28</f>
+      <c r="H36" s="1">
+        <f>C36*D36*E36</f>
         <v>3600000</v>
       </c>
-      <c r="I28" s="1">
-        <f>H28/G28</f>
+      <c r="I36" s="1">
+        <f>H36/G36</f>
         <v>400000</v>
       </c>
-      <c r="K28">
+      <c r="K36">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C29">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C37">
         <v>9</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D37" s="1">
         <v>5000</v>
       </c>
-      <c r="E29">
+      <c r="E37">
         <v>20</v>
       </c>
-      <c r="F29" s="1">
-        <f>D29*E29</f>
+      <c r="F37" s="1">
+        <f>D37*E37</f>
         <v>100000</v>
       </c>
-      <c r="G29">
-        <f xml:space="preserve"> IF(C29&lt;12,C29, 12)</f>
+      <c r="G37">
+        <f xml:space="preserve"> IF(C37&lt;12,C37, 12)</f>
         <v>9</v>
       </c>
-      <c r="H29" s="1">
-        <f>C29*D29*E29</f>
+      <c r="H37" s="1">
+        <f>C37*D37*E37</f>
         <v>900000</v>
       </c>
-      <c r="I29" s="1">
-        <f>H29/G29</f>
+      <c r="I37" s="1">
+        <f>H37/G37</f>
         <v>100000</v>
       </c>
-      <c r="K29">
+      <c r="K37">
         <v>31</v>
       </c>
     </row>
